--- a/Tests/Validation/Wheat/FAR/Observed/FAR VIC W23-03a.xlsx
+++ b/Tests/Validation/Wheat/FAR/Observed/FAR VIC W23-03a.xlsx
@@ -20,212 +20,212 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="68">
-  <si>
-    <t>SimulationName</t>
-  </si>
-  <si>
-    <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
-  <si>
-    <t>Rep</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>TOS</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Cultivar</t>
-  </si>
-  <si>
-    <t>Wheat.SowingDate</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Number</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Number.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Size</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Size.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt.err</t>
-  </si>
-  <si>
-    <t>Wheat.HarvestIndex</t>
-  </si>
-  <si>
-    <t>Wheat.HarvestIndex.err</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemPopulation</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemPopulation.err</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Population</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Population.err</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Diseased.PCCount</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Diseased.PCCount.err</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Diseased.PCWt</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Diseased.PCWt.err</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.HeadNumber</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.HeadNumber.err</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Wt.err</t>
-  </si>
-  <si>
-    <t>HH.Trts</t>
-  </si>
-  <si>
-    <t>HH.Trts.err</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI.err</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.HaunStage</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.HaunStage.err</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Zadok.Stage</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Zadok.Stage.err</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.CoverGreen</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.CoverGreen.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Density</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Density.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Moisture</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Moisture.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Screenings</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Screenings.err</t>
-  </si>
-  <si>
-    <t>Wheat.Lodging</t>
-  </si>
-  <si>
-    <t>Wheat.Lodging.err</t>
-  </si>
-  <si>
-    <t>FAR VIC W23-03a</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Cesario</t>
-  </si>
-  <si>
-    <t>FAR VIC W23-03aTOS2CvCesario</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Stockade</t>
-  </si>
-  <si>
-    <t>FAR VIC W23-03aTOS1CvStockade</t>
-  </si>
-  <si>
-    <t>FAR VIC W23-03aTOS2CvStockade</t>
-  </si>
-  <si>
-    <t>Manning</t>
-  </si>
-  <si>
-    <t>FAR VIC W23-03aTOS1CvManning</t>
-  </si>
-  <si>
-    <t>Zanzibar</t>
-  </si>
-  <si>
-    <t>FAR VIC W23-03aTOS1CvZanzibar</t>
-  </si>
-  <si>
-    <t>FAR VIC W23-03aTOS2CvZanzibar</t>
-  </si>
-  <si>
-    <t>FAR VIC W23-03aTOS1CvCesario</t>
-  </si>
-  <si>
-    <t>FAR VIC W23-03aTOS2CvManning</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>HarvestRipe</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="68">
+  <x:si>
+    <x:t>SimulationName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock.Today</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.CurrentStageName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Experiment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Cultivar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Number.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Size.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.HarvestIndex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.HarvestIndex.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemPopulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemPopulation.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Population</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Population.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Diseased.PCCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Diseased.PCCount.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Diseased.PCWt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Diseased.PCWt.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.HeadNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.HeadNumber.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Wt.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HH.Trts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HH.Trts.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.HaunStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.HaunStage.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Zadok.Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Zadok.Stage.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.CoverGreen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.CoverGreen.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Density</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Density.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Moisture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Moisture.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Screenings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Screenings.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Lodging</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Lodging.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR VIC W23-03a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cesario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR VIC W23-03aTOS2CvCesario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stockade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR VIC W23-03aTOS1CvStockade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR VIC W23-03aTOS2CvStockade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR VIC W23-03aTOS1CvManning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zanzibar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR VIC W23-03aTOS1CvZanzibar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR VIC W23-03aTOS2CvZanzibar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR VIC W23-03aTOS1CvCesario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR VIC W23-03aTOS2CvManning</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>HarvestRipe</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
